--- a/biology/Biologie cellulaire et moléculaire/Nétropsine/Nétropsine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nétropsine/Nétropsine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9tropsine</t>
+          <t>Nétropsine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La nétropsine, également appelée congocidine et sinanomycine, est un polyamide pourvu d'une activité antibiotique et antivirale. Elle a été isolée pour la première fois à partir de l'actinomycète Streptomyces netropsis[3]. Il s'agit d'un antibiotique de la classe pyrrole-amidine, actif contre les bactéries aussi bien à Gram négatif qu'à Gram positif[4]. 
-La nétropsine se lie au petit sillon des séquences riches en paires de bases A–T de l'ADN bicaténaire[4] ainsi qu'aux quadruplexes (TGGGGT)4[5], mais pas à l'ADN monocaténaire ni à l'ARN bicaténaire. Des études par cristallographie aux rayons X de nétropsine liée à l'ADN ont permis d'établir que l'oligopeptide établit des liaisons hydrogène avec quatre paires de bases consécutives dans le petit sillon de l'ADN bicaténaire[6],[7].
-La liaison de la nétropsine à l'ADN augmente l'inclinaison des bases azotées d'environ 9° par tour de la double hélice, favorisant l'introduction de supertours positifs en présence de topoisomérase I[8].
+La nétropsine, également appelée congocidine et sinanomycine, est un polyamide pourvu d'une activité antibiotique et antivirale. Elle a été isolée pour la première fois à partir de l'actinomycète Streptomyces netropsis. Il s'agit d'un antibiotique de la classe pyrrole-amidine, actif contre les bactéries aussi bien à Gram négatif qu'à Gram positif. 
+La nétropsine se lie au petit sillon des séquences riches en paires de bases A–T de l'ADN bicaténaire ainsi qu'aux quadruplexes (TGGGGT)4, mais pas à l'ADN monocaténaire ni à l'ARN bicaténaire. Des études par cristallographie aux rayons X de nétropsine liée à l'ADN ont permis d'établir que l'oligopeptide établit des liaisons hydrogène avec quatre paires de bases consécutives dans le petit sillon de l'ADN bicaténaire,.
+La liaison de la nétropsine à l'ADN augmente l'inclinaison des bases azotées d'environ 9° par tour de la double hélice, favorisant l'introduction de supertours positifs en présence de topoisomérase I.
 </t>
         </is>
       </c>
